--- a/dictionnaire.xlsx
+++ b/dictionnaire.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\AUCLAIR\Documents\Projet_Data_5\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{1649DAF8-4711-42B2-A606-B987FCF941E2}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{11A343F5-4FCA-4A10-A11E-C87E1B28C1CD}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" tabRatio="920" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -37,7 +37,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="288" uniqueCount="176">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="342" uniqueCount="188">
   <si>
     <t>DICTIONNAIRE DES DONNÉES - Valeurs foncières</t>
   </si>
@@ -438,12 +438,6 @@
     <t>code de l’académie couvrant la zone</t>
   </si>
   <si>
-    <t>PK</t>
-  </si>
-  <si>
-    <t>Colonne1</t>
-  </si>
-  <si>
     <t>ne doit pas etre nul</t>
   </si>
   <si>
@@ -540,9 +534,6 @@
     <t>"dep_code - dep_nom "</t>
   </si>
   <si>
-    <t>FK</t>
-  </si>
-  <si>
     <t>Date</t>
   </si>
   <si>
@@ -565,17 +556,69 @@
   </si>
   <si>
     <t>Char</t>
+  </si>
+  <si>
+    <t>Identifiant numérique de la commune</t>
+  </si>
+  <si>
+    <t>Code postal de la commune</t>
+  </si>
+  <si>
+    <t>Nom de la commune en majuscule</t>
+  </si>
+  <si>
+    <t>code à 2 ou 3 chiffres identifiant le département</t>
+  </si>
+  <si>
+    <t>code à 3 chiffres identifiant la commune en sein d'un département</t>
+  </si>
+  <si>
+    <t>Nombre total de lots fonciers rattachés au bien</t>
+  </si>
+  <si>
+    <t>Surface bâtie réelle mesurée en mètres carrés</t>
+  </si>
+  <si>
+    <t>Nombre de pièces principales du logement</t>
+  </si>
+  <si>
+    <t>Float</t>
+  </si>
+  <si>
+    <t>coordonnées géographique en latitude et longitude</t>
+  </si>
+  <si>
+    <t>identification d’unité urbaine</t>
+  </si>
+  <si>
+    <t>nom de l’aire (urbaine ou d’attraction) associée à l’identifiant</t>
+  </si>
+  <si>
+    <t>l’unité urbaine (UU) selon le zonage 2010 de l’INSEE.</t>
+  </si>
+  <si>
+    <t>FLOAT</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Identifiant alphanumérique de l’unité urbaine </t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr9="http://schemas.microsoft.com/office/spreadsheetml/2016/revision9" mc:Ignorable="x14ac x16r2 xr xr9">
-  <fonts count="9" x14ac:knownFonts="1">
+  <fonts count="10" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
       <name val="Calibri"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
+      <family val="2"/>
       <scheme val="minor"/>
     </font>
     <font>
@@ -630,12 +673,18 @@
       <scheme val="minor"/>
     </font>
   </fonts>
-  <fills count="2">
+  <fills count="3">
     <fill>
       <patternFill patternType="none"/>
     </fill>
     <fill>
       <patternFill patternType="gray125"/>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="0"/>
+        <bgColor indexed="64"/>
+      </patternFill>
     </fill>
   </fills>
   <borders count="1">
@@ -650,77 +699,88 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="27">
+  <cellXfs count="31">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center"/>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" quotePrefix="1" applyFont="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="0" quotePrefix="1" applyFont="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top"/>
     </xf>
     <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="0" quotePrefix="1" applyFont="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
+      <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" xfId="0" quotePrefix="1" applyFont="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="7" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
-  <dxfs count="13">
+  <dxfs count="14">
+    <dxf>
+      <alignment horizontal="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
     <dxf>
       <alignment horizontal="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
     </dxf>
@@ -823,24 +883,24 @@
   </dxfs>
   <tableStyles count="4">
     <tableStyle name="Dictionnaire des données - Vale-style" pivot="0" count="3" xr9:uid="{00000000-0011-0000-FFFF-FFFF00000000}">
-      <tableStyleElement type="headerRow" dxfId="12"/>
-      <tableStyleElement type="firstRowStripe" dxfId="11"/>
-      <tableStyleElement type="secondRowStripe" dxfId="10"/>
+      <tableStyleElement type="headerRow" dxfId="13"/>
+      <tableStyleElement type="firstRowStripe" dxfId="12"/>
+      <tableStyleElement type="secondRowStripe" dxfId="11"/>
     </tableStyle>
     <tableStyle name="Dictionnaire des données - Refe-style" pivot="0" count="3" xr9:uid="{00000000-0011-0000-FFFF-FFFF01000000}">
-      <tableStyleElement type="headerRow" dxfId="9"/>
-      <tableStyleElement type="firstRowStripe" dxfId="8"/>
-      <tableStyleElement type="secondRowStripe" dxfId="7"/>
+      <tableStyleElement type="headerRow" dxfId="10"/>
+      <tableStyleElement type="firstRowStripe" dxfId="9"/>
+      <tableStyleElement type="secondRowStripe" dxfId="8"/>
     </tableStyle>
     <tableStyle name="Dictionnaire des données - Donn-style" pivot="0" count="3" xr9:uid="{00000000-0011-0000-FFFF-FFFF02000000}">
-      <tableStyleElement type="headerRow" dxfId="6"/>
-      <tableStyleElement type="firstRowStripe" dxfId="5"/>
-      <tableStyleElement type="secondRowStripe" dxfId="4"/>
+      <tableStyleElement type="headerRow" dxfId="7"/>
+      <tableStyleElement type="firstRowStripe" dxfId="6"/>
+      <tableStyleElement type="secondRowStripe" dxfId="5"/>
     </tableStyle>
     <tableStyle name="Lexique-style" pivot="0" count="3" xr9:uid="{00000000-0011-0000-FFFF-FFFF03000000}">
-      <tableStyleElement type="headerRow" dxfId="3"/>
-      <tableStyleElement type="firstRowStripe" dxfId="2"/>
-      <tableStyleElement type="secondRowStripe" dxfId="1"/>
+      <tableStyleElement type="headerRow" dxfId="4"/>
+      <tableStyleElement type="firstRowStripe" dxfId="3"/>
+      <tableStyleElement type="secondRowStripe" dxfId="2"/>
     </tableStyle>
   </tableStyles>
   <extLst>
@@ -855,8 +915,8 @@
 </file>
 
 <file path=xl/tables/table1.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="1" xr:uid="{00000000-000C-0000-FFFF-FFFF00000000}" name="Table_1" displayName="Table_1" ref="A5:H31">
-  <tableColumns count="8">
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="1" xr:uid="{00000000-000C-0000-FFFF-FFFF00000000}" name="Table_1" displayName="Table_1" ref="A5:G31">
+  <tableColumns count="7">
     <tableColumn id="1" xr3:uid="{00000000-0010-0000-0000-000001000000}" name="CODE"/>
     <tableColumn id="2" xr3:uid="{00000000-0010-0000-0000-000002000000}" name="SIGNIFICATION"/>
     <tableColumn id="3" xr3:uid="{00000000-0010-0000-0000-000003000000}" name="TYPE"/>
@@ -864,31 +924,29 @@
     <tableColumn id="5" xr3:uid="{00000000-0010-0000-0000-000005000000}" name="NATURE"/>
     <tableColumn id="6" xr3:uid="{00000000-0010-0000-0000-000006000000}" name="REGLE DE GESTION"/>
     <tableColumn id="7" xr3:uid="{00000000-0010-0000-0000-000007000000}" name="REGLE DE CALCUL"/>
-    <tableColumn id="8" xr3:uid="{8AA4C7A0-A058-4A19-811A-DD7DC03D628C}" name="Colonne1"/>
   </tableColumns>
   <tableStyleInfo name="Dictionnaire des données - Vale-style" showFirstColumn="1" showLastColumn="1" showRowStripes="1" showColumnStripes="0"/>
 </table>
 </file>
 
 <file path=xl/tables/table2.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="2" xr:uid="{00000000-000C-0000-FFFF-FFFF01000000}" name="Table_2" displayName="Table_2" ref="A5:H42">
-  <tableColumns count="8">
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="2" xr:uid="{00000000-000C-0000-FFFF-FFFF01000000}" name="Table_2" displayName="Table_2" ref="A5:G42">
+  <tableColumns count="7">
     <tableColumn id="1" xr3:uid="{00000000-0010-0000-0100-000001000000}" name="CODE"/>
     <tableColumn id="2" xr3:uid="{00000000-0010-0000-0100-000002000000}" name="SIGNIFICATION"/>
-    <tableColumn id="3" xr3:uid="{00000000-0010-0000-0100-000003000000}" name="TYPE"/>
-    <tableColumn id="4" xr3:uid="{00000000-0010-0000-0100-000004000000}" name="LONGUEUR" dataDxfId="0"/>
+    <tableColumn id="3" xr3:uid="{00000000-0010-0000-0100-000003000000}" name="TYPE" dataDxfId="0"/>
+    <tableColumn id="4" xr3:uid="{00000000-0010-0000-0100-000004000000}" name="LONGUEUR" dataDxfId="1"/>
     <tableColumn id="5" xr3:uid="{00000000-0010-0000-0100-000005000000}" name="NATURE"/>
     <tableColumn id="6" xr3:uid="{00000000-0010-0000-0100-000006000000}" name="REGLE DE GESTION"/>
     <tableColumn id="7" xr3:uid="{00000000-0010-0000-0100-000007000000}" name="REGLE DE CALCUL"/>
-    <tableColumn id="8" xr3:uid="{D6B42E40-5935-4AE5-8022-E872DFFBF685}" name="Colonne1"/>
   </tableColumns>
   <tableStyleInfo name="Dictionnaire des données - Refe-style" showFirstColumn="1" showLastColumn="1" showRowStripes="1" showColumnStripes="0"/>
 </table>
 </file>
 
 <file path=xl/tables/table3.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="3" xr:uid="{00000000-000C-0000-FFFF-FFFF02000000}" name="Table_3" displayName="Table_3" ref="A5:H31">
-  <tableColumns count="8">
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="3" xr:uid="{00000000-000C-0000-FFFF-FFFF02000000}" name="Table_3" displayName="Table_3" ref="A5:G14">
+  <tableColumns count="7">
     <tableColumn id="1" xr3:uid="{00000000-0010-0000-0200-000001000000}" name="CODE"/>
     <tableColumn id="2" xr3:uid="{00000000-0010-0000-0200-000002000000}" name="SIGNIFICATION"/>
     <tableColumn id="3" xr3:uid="{00000000-0010-0000-0200-000003000000}" name="TYPE"/>
@@ -896,7 +954,6 @@
     <tableColumn id="5" xr3:uid="{00000000-0010-0000-0200-000005000000}" name="NATURE"/>
     <tableColumn id="6" xr3:uid="{00000000-0010-0000-0200-000006000000}" name="REGLE DE GESTION"/>
     <tableColumn id="7" xr3:uid="{00000000-0010-0000-0200-000007000000}" name="REGLE DE CALCUL"/>
-    <tableColumn id="8" xr3:uid="{5D3A8694-3719-4174-9689-50ED4464A976}" name="Colonne1"/>
   </tableColumns>
   <tableStyleInfo name="Dictionnaire des données - Donn-style" showFirstColumn="1" showLastColumn="1" showRowStripes="1" showColumnStripes="0"/>
 </table>
@@ -1110,10 +1167,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A2:H999"/>
+  <dimension ref="A2:G999"/>
   <sheetViews>
     <sheetView showGridLines="0" tabSelected="1" workbookViewId="0">
-      <selection activeCell="C15" sqref="C15"/>
+      <selection activeCell="F6" sqref="F6"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="14.44140625" defaultRowHeight="15" customHeight="1" x14ac:dyDescent="0.3"/>
@@ -1125,21 +1182,21 @@
     <col min="5" max="5" width="12.88671875" customWidth="1"/>
     <col min="6" max="6" width="20.6640625" customWidth="1"/>
     <col min="7" max="7" width="34.44140625" customWidth="1"/>
-    <col min="8" max="25" width="10.6640625" customWidth="1"/>
+    <col min="8" max="24" width="10.6640625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="2" spans="1:8" ht="25.8" x14ac:dyDescent="0.5">
-      <c r="A2" s="25" t="s">
+    <row r="2" spans="1:7" ht="25.8" x14ac:dyDescent="0.5">
+      <c r="A2" s="27" t="s">
         <v>0</v>
       </c>
-      <c r="B2" s="26"/>
-      <c r="C2" s="26"/>
-      <c r="D2" s="26"/>
-      <c r="E2" s="26"/>
-      <c r="F2" s="26"/>
-      <c r="G2" s="26"/>
-    </row>
-    <row r="5" spans="1:8" ht="14.4" x14ac:dyDescent="0.3">
+      <c r="B2" s="28"/>
+      <c r="C2" s="28"/>
+      <c r="D2" s="28"/>
+      <c r="E2" s="28"/>
+      <c r="F2" s="28"/>
+      <c r="G2" s="28"/>
+    </row>
+    <row r="5" spans="1:7" ht="14.4" x14ac:dyDescent="0.3">
       <c r="A5" s="1" t="s">
         <v>1</v>
       </c>
@@ -1161,11 +1218,8 @@
       <c r="G5" s="1" t="s">
         <v>7</v>
       </c>
-      <c r="H5" t="s">
-        <v>134</v>
-      </c>
-    </row>
-    <row r="6" spans="1:8" ht="14.4" x14ac:dyDescent="0.3">
+    </row>
+    <row r="6" spans="1:7" ht="14.4" x14ac:dyDescent="0.3">
       <c r="A6" s="3" t="s">
         <v>8</v>
       </c>
@@ -1185,11 +1239,8 @@
         <v>13</v>
       </c>
       <c r="G6" s="5"/>
-      <c r="H6" s="21" t="s">
-        <v>167</v>
-      </c>
-    </row>
-    <row r="7" spans="1:8" ht="14.4" x14ac:dyDescent="0.3">
+    </row>
+    <row r="7" spans="1:7" ht="14.4" x14ac:dyDescent="0.3">
       <c r="A7" s="3" t="s">
         <v>14</v>
       </c>
@@ -1208,7 +1259,7 @@
       <c r="F7" s="3"/>
       <c r="G7" s="5"/>
     </row>
-    <row r="8" spans="1:8" ht="14.4" x14ac:dyDescent="0.3">
+    <row r="8" spans="1:7" ht="14.4" x14ac:dyDescent="0.3">
       <c r="A8" s="3" t="s">
         <v>16</v>
       </c>
@@ -1227,7 +1278,7 @@
       <c r="F8" s="3"/>
       <c r="G8" s="5"/>
     </row>
-    <row r="9" spans="1:8" ht="14.4" x14ac:dyDescent="0.3">
+    <row r="9" spans="1:7" ht="14.4" x14ac:dyDescent="0.3">
       <c r="A9" s="3" t="s">
         <v>19</v>
       </c>
@@ -1246,12 +1297,12 @@
       <c r="F9" s="6"/>
       <c r="G9" s="5"/>
     </row>
-    <row r="10" spans="1:8" ht="14.4" x14ac:dyDescent="0.3">
+    <row r="10" spans="1:7" ht="14.4" x14ac:dyDescent="0.3">
       <c r="A10" s="8" t="s">
         <v>38</v>
       </c>
       <c r="B10" s="9" t="s">
-        <v>172</v>
+        <v>169</v>
       </c>
       <c r="C10" s="10" t="s">
         <v>10</v>
@@ -1265,12 +1316,12 @@
       <c r="F10" s="9"/>
       <c r="G10" s="5"/>
     </row>
-    <row r="11" spans="1:8" ht="14.4" x14ac:dyDescent="0.3">
+    <row r="11" spans="1:7" ht="14.4" x14ac:dyDescent="0.3">
       <c r="A11" s="11" t="s">
         <v>39</v>
       </c>
       <c r="B11" s="9" t="s">
-        <v>171</v>
+        <v>168</v>
       </c>
       <c r="C11" s="10" t="s">
         <v>10</v>
@@ -1284,15 +1335,15 @@
       <c r="F11" s="9"/>
       <c r="G11" s="5"/>
     </row>
-    <row r="12" spans="1:8" ht="15" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="12" spans="1:7" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A12" s="11" t="s">
         <v>34</v>
       </c>
       <c r="B12" s="9" t="s">
-        <v>169</v>
+        <v>166</v>
       </c>
       <c r="C12" s="10" t="s">
-        <v>168</v>
+        <v>165</v>
       </c>
       <c r="D12" s="10">
         <v>50</v>
@@ -1303,65 +1354,79 @@
       <c r="F12" s="9"/>
       <c r="G12" s="5"/>
     </row>
-    <row r="13" spans="1:8" ht="15" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="13" spans="1:7" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A13" s="9" t="s">
         <v>40</v>
       </c>
       <c r="B13" s="9" t="s">
-        <v>170</v>
-      </c>
-      <c r="C13" s="9" t="s">
+        <v>167</v>
+      </c>
+      <c r="C13" s="26" t="s">
         <v>10</v>
       </c>
-      <c r="D13" s="9">
+      <c r="D13" s="26">
         <v>50</v>
       </c>
-      <c r="E13" s="9" t="s">
+      <c r="E13" s="26" t="s">
         <v>12</v>
       </c>
       <c r="F13" s="9"/>
       <c r="G13" s="5"/>
     </row>
-    <row r="14" spans="1:8" ht="14.4" x14ac:dyDescent="0.3">
+    <row r="14" spans="1:7" ht="14.4" x14ac:dyDescent="0.3">
       <c r="A14" s="9" t="s">
         <v>35</v>
       </c>
       <c r="B14" s="9" t="s">
         <v>37</v>
       </c>
-      <c r="C14" s="9" t="s">
-        <v>175</v>
-      </c>
-      <c r="D14" s="9">
+      <c r="C14" s="26" t="s">
+        <v>172</v>
+      </c>
+      <c r="D14" s="26">
         <v>1</v>
       </c>
-      <c r="E14" s="9" t="s">
+      <c r="E14" s="26" t="s">
         <v>12</v>
       </c>
       <c r="F14" s="9"/>
       <c r="G14" s="5"/>
     </row>
-    <row r="15" spans="1:8" ht="14.4" x14ac:dyDescent="0.3">
+    <row r="15" spans="1:7" ht="14.4" x14ac:dyDescent="0.3">
       <c r="A15" s="9" t="s">
         <v>41</v>
       </c>
       <c r="B15" s="9" t="s">
-        <v>173</v>
-      </c>
-      <c r="C15" s="9"/>
-      <c r="D15" s="9"/>
-      <c r="E15" s="9"/>
+        <v>170</v>
+      </c>
+      <c r="C15" s="26" t="s">
+        <v>18</v>
+      </c>
+      <c r="D15" s="26">
+        <v>5</v>
+      </c>
+      <c r="E15" s="26" t="s">
+        <v>12</v>
+      </c>
       <c r="F15" s="9"/>
       <c r="G15" s="5"/>
     </row>
-    <row r="16" spans="1:8" ht="14.4" x14ac:dyDescent="0.3">
+    <row r="16" spans="1:7" ht="14.4" x14ac:dyDescent="0.3">
       <c r="A16" s="9" t="s">
         <v>42</v>
       </c>
-      <c r="B16" s="9"/>
-      <c r="C16" s="9"/>
-      <c r="D16" s="9"/>
-      <c r="E16" s="9"/>
+      <c r="B16" s="9" t="s">
+        <v>173</v>
+      </c>
+      <c r="C16" s="26" t="s">
+        <v>10</v>
+      </c>
+      <c r="D16" s="26">
+        <v>5</v>
+      </c>
+      <c r="E16" s="26" t="s">
+        <v>12</v>
+      </c>
       <c r="F16" s="9"/>
       <c r="G16" s="5"/>
     </row>
@@ -1369,10 +1434,18 @@
       <c r="A17" s="9" t="s">
         <v>43</v>
       </c>
-      <c r="B17" s="9"/>
-      <c r="C17" s="9"/>
-      <c r="D17" s="9"/>
-      <c r="E17" s="9"/>
+      <c r="B17" s="9" t="s">
+        <v>174</v>
+      </c>
+      <c r="C17" s="26" t="s">
+        <v>10</v>
+      </c>
+      <c r="D17" s="26">
+        <v>5</v>
+      </c>
+      <c r="E17" s="26" t="s">
+        <v>12</v>
+      </c>
       <c r="F17" s="9"/>
       <c r="G17" s="5"/>
     </row>
@@ -1380,10 +1453,18 @@
       <c r="A18" s="9" t="s">
         <v>36</v>
       </c>
-      <c r="B18" s="9"/>
-      <c r="C18" s="9"/>
-      <c r="D18" s="9"/>
-      <c r="E18" s="9"/>
+      <c r="B18" s="9" t="s">
+        <v>175</v>
+      </c>
+      <c r="C18" s="26" t="s">
+        <v>18</v>
+      </c>
+      <c r="D18" s="26">
+        <v>100</v>
+      </c>
+      <c r="E18" s="26" t="s">
+        <v>12</v>
+      </c>
       <c r="F18" s="9"/>
       <c r="G18" s="5"/>
     </row>
@@ -1391,10 +1472,18 @@
       <c r="A19" s="9" t="s">
         <v>44</v>
       </c>
-      <c r="B19" s="9"/>
-      <c r="C19" s="9"/>
-      <c r="D19" s="9"/>
-      <c r="E19" s="9"/>
+      <c r="B19" s="9" t="s">
+        <v>176</v>
+      </c>
+      <c r="C19" s="26" t="s">
+        <v>10</v>
+      </c>
+      <c r="D19" s="26">
+        <v>3</v>
+      </c>
+      <c r="E19" s="26" t="s">
+        <v>12</v>
+      </c>
       <c r="F19" s="9"/>
       <c r="G19" s="5"/>
     </row>
@@ -1402,10 +1491,18 @@
       <c r="A20" s="9" t="s">
         <v>45</v>
       </c>
-      <c r="B20" s="9"/>
-      <c r="C20" s="9"/>
-      <c r="D20" s="9"/>
-      <c r="E20" s="9"/>
+      <c r="B20" s="9" t="s">
+        <v>177</v>
+      </c>
+      <c r="C20" s="26" t="s">
+        <v>10</v>
+      </c>
+      <c r="D20" s="26">
+        <v>3</v>
+      </c>
+      <c r="E20" s="26" t="s">
+        <v>12</v>
+      </c>
       <c r="F20" s="9"/>
       <c r="G20" s="5"/>
     </row>
@@ -1416,9 +1513,15 @@
       <c r="B21" s="9" t="s">
         <v>47</v>
       </c>
-      <c r="C21" s="9"/>
-      <c r="D21" s="9"/>
-      <c r="E21" s="9"/>
+      <c r="C21" s="26" t="s">
+        <v>10</v>
+      </c>
+      <c r="D21" s="26">
+        <v>3</v>
+      </c>
+      <c r="E21" s="26" t="s">
+        <v>12</v>
+      </c>
       <c r="F21" s="9"/>
       <c r="G21" s="5"/>
     </row>
@@ -1429,9 +1532,15 @@
       <c r="B22" s="9" t="s">
         <v>50</v>
       </c>
-      <c r="C22" s="9"/>
-      <c r="D22" s="9"/>
-      <c r="E22" s="9"/>
+      <c r="C22" s="26" t="s">
+        <v>172</v>
+      </c>
+      <c r="D22" s="26">
+        <v>5</v>
+      </c>
+      <c r="E22" s="26" t="s">
+        <v>12</v>
+      </c>
       <c r="F22" s="9"/>
       <c r="G22" s="5"/>
     </row>
@@ -1442,9 +1551,15 @@
       <c r="B23" s="9" t="s">
         <v>51</v>
       </c>
-      <c r="C23" s="9"/>
-      <c r="D23" s="9"/>
-      <c r="E23" s="9"/>
+      <c r="C23" s="26" t="s">
+        <v>10</v>
+      </c>
+      <c r="D23" s="26">
+        <v>5</v>
+      </c>
+      <c r="E23" s="26" t="s">
+        <v>12</v>
+      </c>
       <c r="F23" s="9"/>
       <c r="G23" s="5"/>
     </row>
@@ -1455,9 +1570,15 @@
       <c r="B24" s="9" t="s">
         <v>52</v>
       </c>
-      <c r="C24" s="9"/>
-      <c r="D24" s="9"/>
-      <c r="E24" s="9"/>
+      <c r="C24" s="26" t="s">
+        <v>18</v>
+      </c>
+      <c r="D24" s="26">
+        <v>10</v>
+      </c>
+      <c r="E24" s="26" t="s">
+        <v>12</v>
+      </c>
       <c r="F24" s="9"/>
       <c r="G24" s="5"/>
     </row>
@@ -1468,9 +1589,15 @@
       <c r="B25" s="9" t="s">
         <v>55</v>
       </c>
-      <c r="C25" s="9"/>
-      <c r="D25" s="9"/>
-      <c r="E25" s="9"/>
+      <c r="C25" s="26" t="s">
+        <v>181</v>
+      </c>
+      <c r="D25" s="26">
+        <v>20</v>
+      </c>
+      <c r="E25" s="26" t="s">
+        <v>12</v>
+      </c>
       <c r="F25" s="9"/>
       <c r="G25" s="5"/>
     </row>
@@ -1478,10 +1605,18 @@
       <c r="A26" s="9" t="s">
         <v>56</v>
       </c>
-      <c r="B26" s="9"/>
-      <c r="C26" s="9"/>
-      <c r="D26" s="9"/>
-      <c r="E26" s="9"/>
+      <c r="B26" s="9" t="s">
+        <v>178</v>
+      </c>
+      <c r="C26" s="26" t="s">
+        <v>10</v>
+      </c>
+      <c r="D26" s="26">
+        <v>2</v>
+      </c>
+      <c r="E26" s="26" t="s">
+        <v>12</v>
+      </c>
       <c r="F26" s="9"/>
       <c r="G26" s="9"/>
     </row>
@@ -1490,11 +1625,17 @@
         <v>57</v>
       </c>
       <c r="B27" s="9" t="s">
-        <v>174</v>
-      </c>
-      <c r="C27" s="9"/>
-      <c r="D27" s="9"/>
-      <c r="E27" s="9"/>
+        <v>171</v>
+      </c>
+      <c r="C27" s="26" t="s">
+        <v>18</v>
+      </c>
+      <c r="D27" s="26">
+        <v>20</v>
+      </c>
+      <c r="E27" s="26" t="s">
+        <v>12</v>
+      </c>
       <c r="F27" s="9"/>
       <c r="G27" s="9"/>
     </row>
@@ -1502,10 +1643,18 @@
       <c r="A28" s="9" t="s">
         <v>58</v>
       </c>
-      <c r="B28" s="9"/>
-      <c r="C28" s="9"/>
-      <c r="D28" s="9"/>
-      <c r="E28" s="9"/>
+      <c r="B28" s="9" t="s">
+        <v>179</v>
+      </c>
+      <c r="C28" s="26" t="s">
+        <v>10</v>
+      </c>
+      <c r="D28" s="26">
+        <v>5</v>
+      </c>
+      <c r="E28" s="26" t="s">
+        <v>12</v>
+      </c>
       <c r="F28" s="9"/>
       <c r="G28" s="9"/>
     </row>
@@ -1513,30 +1662,38 @@
       <c r="A29" s="9" t="s">
         <v>59</v>
       </c>
-      <c r="B29" s="9"/>
-      <c r="C29" s="9"/>
-      <c r="D29" s="9"/>
-      <c r="E29" s="9"/>
+      <c r="B29" s="9" t="s">
+        <v>180</v>
+      </c>
+      <c r="C29" s="26" t="s">
+        <v>10</v>
+      </c>
+      <c r="D29" s="26">
+        <v>2</v>
+      </c>
+      <c r="E29" s="26" t="s">
+        <v>12</v>
+      </c>
       <c r="F29" s="9"/>
       <c r="G29" s="9"/>
     </row>
     <row r="30" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A30" s="9"/>
-      <c r="B30" s="9"/>
-      <c r="C30" s="9"/>
-      <c r="D30" s="9"/>
-      <c r="E30" s="9"/>
-      <c r="F30" s="9"/>
-      <c r="G30" s="9"/>
+      <c r="A30" s="25"/>
+      <c r="B30" s="25"/>
+      <c r="C30" s="25"/>
+      <c r="D30" s="25"/>
+      <c r="E30" s="25"/>
+      <c r="F30" s="25"/>
+      <c r="G30" s="25"/>
     </row>
     <row r="31" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A31" s="9"/>
-      <c r="B31" s="9"/>
-      <c r="C31" s="9"/>
-      <c r="D31" s="9"/>
-      <c r="E31" s="9"/>
-      <c r="F31" s="9"/>
-      <c r="G31" s="9"/>
+      <c r="A31" s="25"/>
+      <c r="B31" s="25"/>
+      <c r="C31" s="25"/>
+      <c r="D31" s="25"/>
+      <c r="E31" s="25"/>
+      <c r="F31" s="25"/>
+      <c r="G31" s="25"/>
     </row>
     <row r="32" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
     <row r="33" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
@@ -2520,10 +2677,10 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
-  <dimension ref="A2:H1002"/>
+  <dimension ref="A2:G1002"/>
   <sheetViews>
-    <sheetView showGridLines="0" workbookViewId="0">
-      <selection activeCell="A17" sqref="A17"/>
+    <sheetView showGridLines="0" topLeftCell="A10" workbookViewId="0">
+      <selection activeCell="A23" sqref="A23"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="14.44140625" defaultRowHeight="15" customHeight="1" x14ac:dyDescent="0.3"/>
@@ -2533,23 +2690,23 @@
     <col min="3" max="3" width="10.6640625" customWidth="1"/>
     <col min="4" max="4" width="13.33203125" customWidth="1"/>
     <col min="5" max="5" width="12.88671875" customWidth="1"/>
-    <col min="6" max="6" width="20.6640625" customWidth="1"/>
+    <col min="6" max="6" width="22.33203125" customWidth="1"/>
     <col min="7" max="7" width="53" customWidth="1"/>
-    <col min="8" max="25" width="10.6640625" customWidth="1"/>
+    <col min="8" max="24" width="10.6640625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="2" spans="1:8" ht="25.8" x14ac:dyDescent="0.5">
-      <c r="A2" s="25" t="s">
+    <row r="2" spans="1:7" ht="25.8" x14ac:dyDescent="0.5">
+      <c r="A2" s="27" t="s">
         <v>21</v>
       </c>
-      <c r="B2" s="26"/>
-      <c r="C2" s="26"/>
-      <c r="D2" s="26"/>
-      <c r="E2" s="26"/>
-      <c r="F2" s="26"/>
-      <c r="G2" s="26"/>
-    </row>
-    <row r="5" spans="1:8" ht="14.4" x14ac:dyDescent="0.3">
+      <c r="B2" s="28"/>
+      <c r="C2" s="28"/>
+      <c r="D2" s="28"/>
+      <c r="E2" s="28"/>
+      <c r="F2" s="28"/>
+      <c r="G2" s="28"/>
+    </row>
+    <row r="5" spans="1:7" ht="14.4" x14ac:dyDescent="0.3">
       <c r="A5" s="1" t="s">
         <v>1</v>
       </c>
@@ -2571,11 +2728,8 @@
       <c r="G5" s="1" t="s">
         <v>7</v>
       </c>
-      <c r="H5" t="s">
-        <v>134</v>
-      </c>
-    </row>
-    <row r="6" spans="1:8" ht="14.4" x14ac:dyDescent="0.3">
+    </row>
+    <row r="6" spans="1:7" ht="14.4" x14ac:dyDescent="0.3">
       <c r="A6" s="13" t="s">
         <v>82</v>
       </c>
@@ -2594,7 +2748,7 @@
       <c r="F6" s="3"/>
       <c r="G6" s="5"/>
     </row>
-    <row r="7" spans="1:8" ht="14.4" x14ac:dyDescent="0.3">
+    <row r="7" spans="1:7" ht="14.4" x14ac:dyDescent="0.3">
       <c r="A7" s="13" t="s">
         <v>83</v>
       </c>
@@ -2613,7 +2767,7 @@
       <c r="F7" s="3"/>
       <c r="G7" s="5"/>
     </row>
-    <row r="8" spans="1:8" ht="14.4" x14ac:dyDescent="0.3">
+    <row r="8" spans="1:7" ht="14.4" x14ac:dyDescent="0.3">
       <c r="A8" s="13" t="s">
         <v>84</v>
       </c>
@@ -2632,7 +2786,7 @@
       <c r="F8" s="3"/>
       <c r="G8" s="5"/>
     </row>
-    <row r="9" spans="1:8" ht="14.4" x14ac:dyDescent="0.3">
+    <row r="9" spans="1:7" ht="14.4" x14ac:dyDescent="0.3">
       <c r="A9" s="13" t="s">
         <v>85</v>
       </c>
@@ -2651,7 +2805,7 @@
       <c r="F9" s="6"/>
       <c r="G9" s="5"/>
     </row>
-    <row r="10" spans="1:8" ht="14.4" x14ac:dyDescent="0.3">
+    <row r="10" spans="1:7" ht="14.4" x14ac:dyDescent="0.3">
       <c r="A10" s="15" t="s">
         <v>86</v>
       </c>
@@ -2670,12 +2824,12 @@
       <c r="F10" s="5"/>
       <c r="G10" s="5"/>
     </row>
-    <row r="11" spans="1:8" ht="14.4" x14ac:dyDescent="0.3">
+    <row r="11" spans="1:7" ht="14.4" x14ac:dyDescent="0.3">
       <c r="A11" s="15" t="s">
         <v>87</v>
       </c>
       <c r="B11" s="12" t="s">
-        <v>141</v>
+        <v>139</v>
       </c>
       <c r="C11" s="16" t="s">
         <v>76</v>
@@ -2688,16 +2842,13 @@
       </c>
       <c r="F11" s="5"/>
       <c r="G11" s="5"/>
-      <c r="H11" s="21" t="s">
-        <v>167</v>
-      </c>
-    </row>
-    <row r="12" spans="1:8" ht="15" customHeight="1" x14ac:dyDescent="0.3">
+    </row>
+    <row r="12" spans="1:7" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A12" s="15" t="s">
         <v>88</v>
       </c>
       <c r="B12" s="12" t="s">
-        <v>141</v>
+        <v>139</v>
       </c>
       <c r="C12" s="16" t="s">
         <v>76</v>
@@ -2706,19 +2857,19 @@
         <v>10</v>
       </c>
       <c r="E12" s="16" t="s">
-        <v>136</v>
+        <v>134</v>
       </c>
       <c r="F12" s="5"/>
       <c r="G12" s="12" t="s">
-        <v>137</v>
-      </c>
-    </row>
-    <row r="13" spans="1:8" ht="15" customHeight="1" x14ac:dyDescent="0.3">
+        <v>135</v>
+      </c>
+    </row>
+    <row r="13" spans="1:7" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A13" s="12" t="s">
         <v>89</v>
       </c>
       <c r="B13" s="12" t="s">
-        <v>141</v>
+        <v>139</v>
       </c>
       <c r="C13" s="16" t="s">
         <v>76</v>
@@ -2727,19 +2878,19 @@
         <v>10</v>
       </c>
       <c r="E13" s="16" t="s">
-        <v>136</v>
+        <v>134</v>
       </c>
       <c r="F13" s="5"/>
       <c r="G13" s="12" t="s">
-        <v>137</v>
-      </c>
-    </row>
-    <row r="14" spans="1:8" ht="14.4" x14ac:dyDescent="0.3">
+        <v>135</v>
+      </c>
+    </row>
+    <row r="14" spans="1:7" ht="14.4" x14ac:dyDescent="0.3">
       <c r="A14" s="12" t="s">
         <v>90</v>
       </c>
       <c r="B14" s="12" t="s">
-        <v>142</v>
+        <v>140</v>
       </c>
       <c r="C14" s="16" t="s">
         <v>76</v>
@@ -2752,15 +2903,15 @@
       </c>
       <c r="F14" s="5"/>
       <c r="G14" s="12" t="s">
-        <v>138</v>
-      </c>
-    </row>
-    <row r="15" spans="1:8" ht="14.4" x14ac:dyDescent="0.3">
+        <v>136</v>
+      </c>
+    </row>
+    <row r="15" spans="1:7" ht="14.4" x14ac:dyDescent="0.3">
       <c r="A15" s="12" t="s">
         <v>91</v>
       </c>
       <c r="B15" s="12" t="s">
-        <v>139</v>
+        <v>137</v>
       </c>
       <c r="C15" s="16" t="s">
         <v>76</v>
@@ -2774,12 +2925,12 @@
       <c r="F15" s="5"/>
       <c r="G15" s="5"/>
     </row>
-    <row r="16" spans="1:8" ht="14.4" x14ac:dyDescent="0.3">
+    <row r="16" spans="1:7" ht="14.4" x14ac:dyDescent="0.3">
       <c r="A16" s="12" t="s">
         <v>92</v>
       </c>
       <c r="B16" s="12" t="s">
-        <v>140</v>
+        <v>138</v>
       </c>
       <c r="C16" s="16" t="s">
         <v>76</v>
@@ -2849,7 +3000,7 @@
       </c>
       <c r="F19" s="5"/>
       <c r="G19" s="12" t="s">
-        <v>143</v>
+        <v>141</v>
       </c>
     </row>
     <row r="20" spans="1:7" ht="14.4" x14ac:dyDescent="0.3">
@@ -2870,7 +3021,7 @@
       </c>
       <c r="F20" s="5"/>
       <c r="G20" s="12" t="s">
-        <v>144</v>
+        <v>142</v>
       </c>
     </row>
     <row r="21" spans="1:7" ht="18" customHeight="1" x14ac:dyDescent="0.3">
@@ -2902,7 +3053,9 @@
       <c r="C22" s="4" t="s">
         <v>76</v>
       </c>
-      <c r="D22" s="7"/>
+      <c r="D22" s="7">
+        <v>10</v>
+      </c>
       <c r="E22" s="16" t="s">
         <v>77</v>
       </c>
@@ -2922,8 +3075,12 @@
       <c r="D23" s="7">
         <v>10</v>
       </c>
-      <c r="E23" s="4"/>
-      <c r="F23" s="5"/>
+      <c r="E23" s="4" t="s">
+        <v>77</v>
+      </c>
+      <c r="F23" s="5" t="s">
+        <v>13</v>
+      </c>
       <c r="G23" s="5"/>
     </row>
     <row r="24" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
@@ -2944,7 +3101,7 @@
       </c>
       <c r="F24" s="5"/>
       <c r="G24" s="12" t="s">
-        <v>146</v>
+        <v>144</v>
       </c>
     </row>
     <row r="25" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
@@ -2957,13 +3114,15 @@
       <c r="C25" s="4" t="s">
         <v>76</v>
       </c>
-      <c r="D25" s="7"/>
+      <c r="D25" s="7">
+        <v>100</v>
+      </c>
       <c r="E25" s="16" t="s">
         <v>121</v>
       </c>
       <c r="F25" s="5"/>
       <c r="G25" s="12" t="s">
-        <v>165</v>
+        <v>163</v>
       </c>
     </row>
     <row r="26" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
@@ -2976,13 +3135,15 @@
       <c r="C26" s="4" t="s">
         <v>76</v>
       </c>
-      <c r="D26" s="7"/>
+      <c r="D26" s="7">
+        <v>100</v>
+      </c>
       <c r="E26" s="16" t="s">
         <v>121</v>
       </c>
       <c r="F26" s="5"/>
       <c r="G26" s="12" t="s">
-        <v>166</v>
+        <v>164</v>
       </c>
     </row>
     <row r="27" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
@@ -2998,7 +3159,9 @@
       <c r="D27" s="7">
         <v>3</v>
       </c>
-      <c r="E27" s="4"/>
+      <c r="E27" s="4" t="s">
+        <v>77</v>
+      </c>
       <c r="F27" s="5"/>
       <c r="G27" s="5"/>
     </row>
@@ -3007,7 +3170,7 @@
         <v>103</v>
       </c>
       <c r="B28" s="12" t="s">
-        <v>147</v>
+        <v>145</v>
       </c>
       <c r="C28" s="16" t="s">
         <v>76</v>
@@ -3020,15 +3183,15 @@
       </c>
       <c r="F28" s="5"/>
       <c r="G28" s="12" t="s">
-        <v>145</v>
+        <v>143</v>
       </c>
     </row>
     <row r="29" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A29" s="12" t="s">
+        <v>146</v>
+      </c>
+      <c r="B29" s="12" t="s">
         <v>148</v>
-      </c>
-      <c r="B29" s="12" t="s">
-        <v>150</v>
       </c>
       <c r="C29" s="16" t="s">
         <v>131</v>
@@ -3039,15 +3202,17 @@
       <c r="E29" s="16" t="s">
         <v>77</v>
       </c>
-      <c r="F29" s="5"/>
+      <c r="F29" s="5" t="s">
+        <v>13</v>
+      </c>
       <c r="G29" s="5"/>
     </row>
     <row r="30" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A30" s="12" t="s">
-        <v>149</v>
+        <v>147</v>
       </c>
       <c r="B30" s="12" t="s">
-        <v>152</v>
+        <v>150</v>
       </c>
       <c r="C30" s="16" t="s">
         <v>76</v>
@@ -3060,7 +3225,7 @@
       </c>
       <c r="F30" s="5"/>
       <c r="G30" s="12" t="s">
-        <v>151</v>
+        <v>149</v>
       </c>
     </row>
     <row r="31" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
@@ -3068,7 +3233,7 @@
         <v>104</v>
       </c>
       <c r="B31" s="12" t="s">
-        <v>153</v>
+        <v>151</v>
       </c>
       <c r="C31" s="16" t="s">
         <v>131</v>
@@ -3087,7 +3252,7 @@
         <v>105</v>
       </c>
       <c r="B32" s="12" t="s">
-        <v>154</v>
+        <v>152</v>
       </c>
       <c r="C32" s="16" t="s">
         <v>76</v>
@@ -3100,7 +3265,7 @@
       </c>
       <c r="F32" s="5"/>
       <c r="G32" s="12" t="s">
-        <v>155</v>
+        <v>153</v>
       </c>
     </row>
     <row r="33" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
@@ -3108,13 +3273,17 @@
         <v>106</v>
       </c>
       <c r="B33" s="12" t="s">
-        <v>158</v>
+        <v>156</v>
       </c>
       <c r="C33" s="16" t="s">
         <v>76</v>
       </c>
-      <c r="D33" s="7"/>
-      <c r="E33" s="4"/>
+      <c r="D33" s="7">
+        <v>10</v>
+      </c>
+      <c r="E33" s="4" t="s">
+        <v>77</v>
+      </c>
       <c r="F33" s="5"/>
       <c r="G33" s="5"/>
     </row>
@@ -3123,48 +3292,68 @@
         <v>107</v>
       </c>
       <c r="B34" s="21" t="s">
-        <v>157</v>
+        <v>155</v>
       </c>
       <c r="C34" s="24" t="s">
         <v>76</v>
       </c>
-      <c r="D34" s="22"/>
-      <c r="E34" s="23"/>
+      <c r="D34" s="22">
+        <v>10</v>
+      </c>
+      <c r="E34" s="23" t="s">
+        <v>77</v>
+      </c>
     </row>
     <row r="35" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A35" s="20" t="s">
         <v>108</v>
       </c>
       <c r="B35" s="21" t="s">
-        <v>159</v>
+        <v>157</v>
       </c>
       <c r="C35" s="24" t="s">
         <v>76</v>
       </c>
-      <c r="D35" s="22"/>
-      <c r="E35" s="23"/>
+      <c r="D35" s="22">
+        <v>10</v>
+      </c>
+      <c r="E35" s="23" t="s">
+        <v>77</v>
+      </c>
       <c r="G35" s="21" t="s">
-        <v>156</v>
+        <v>154</v>
       </c>
     </row>
     <row r="36" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A36" s="21" t="s">
-        <v>160</v>
-      </c>
-      <c r="D36" s="22"/>
-      <c r="E36" s="23"/>
+        <v>158</v>
+      </c>
+      <c r="B36" t="s">
+        <v>187</v>
+      </c>
+      <c r="C36" s="22" t="s">
+        <v>76</v>
+      </c>
+      <c r="D36" s="22">
+        <v>10</v>
+      </c>
+      <c r="E36" s="23" t="s">
+        <v>77</v>
+      </c>
     </row>
     <row r="37" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A37" s="21" t="s">
-        <v>161</v>
+        <v>159</v>
       </c>
       <c r="B37" s="21" t="s">
-        <v>162</v>
-      </c>
-      <c r="C37" s="21" t="s">
+        <v>160</v>
+      </c>
+      <c r="C37" s="30" t="s">
         <v>76</v>
       </c>
-      <c r="D37" s="22"/>
+      <c r="D37" s="22">
+        <v>10</v>
+      </c>
       <c r="E37" s="24" t="s">
         <v>77</v>
       </c>
@@ -3174,46 +3363,88 @@
         <v>109</v>
       </c>
       <c r="B38" s="21" t="s">
-        <v>163</v>
-      </c>
-      <c r="C38" s="21" t="s">
+        <v>161</v>
+      </c>
+      <c r="C38" s="30" t="s">
         <v>76</v>
       </c>
-      <c r="D38" s="22"/>
+      <c r="D38" s="22">
+        <v>10</v>
+      </c>
       <c r="E38" s="24" t="s">
         <v>121</v>
       </c>
       <c r="G38" s="21" t="s">
-        <v>164</v>
+        <v>162</v>
       </c>
     </row>
     <row r="39" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A39" s="20" t="s">
+      <c r="A39" s="29" t="s">
         <v>110</v>
       </c>
-      <c r="D39" s="22"/>
-      <c r="E39" s="23"/>
+      <c r="B39" t="s">
+        <v>183</v>
+      </c>
+      <c r="C39" s="22" t="s">
+        <v>76</v>
+      </c>
+      <c r="D39" s="22">
+        <v>10</v>
+      </c>
+      <c r="E39" s="23" t="s">
+        <v>77</v>
+      </c>
     </row>
     <row r="40" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A40" s="20" t="s">
         <v>111</v>
       </c>
-      <c r="D40" s="22"/>
-      <c r="E40" s="23"/>
+      <c r="B40" t="s">
+        <v>184</v>
+      </c>
+      <c r="C40" s="22" t="s">
+        <v>76</v>
+      </c>
+      <c r="D40" s="22">
+        <v>100</v>
+      </c>
+      <c r="E40" s="23" t="s">
+        <v>77</v>
+      </c>
     </row>
     <row r="41" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A41" s="20" t="s">
         <v>112</v>
       </c>
-      <c r="D41" s="22"/>
-      <c r="E41" s="23"/>
+      <c r="B41" t="s">
+        <v>185</v>
+      </c>
+      <c r="C41" s="22" t="s">
+        <v>76</v>
+      </c>
+      <c r="D41" s="22">
+        <v>10</v>
+      </c>
+      <c r="E41" s="23" t="s">
+        <v>77</v>
+      </c>
     </row>
     <row r="42" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A42" s="20" t="s">
+      <c r="A42" s="29" t="s">
         <v>113</v>
       </c>
-      <c r="D42" s="22"/>
-      <c r="E42" s="23"/>
+      <c r="B42" t="s">
+        <v>182</v>
+      </c>
+      <c r="C42" s="22" t="s">
+        <v>186</v>
+      </c>
+      <c r="D42" s="22">
+        <v>100</v>
+      </c>
+      <c r="E42" s="23" t="s">
+        <v>77</v>
+      </c>
     </row>
     <row r="43" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
     <row r="44" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
@@ -4189,10 +4420,10 @@
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0200-000000000000}">
-  <dimension ref="A2:H999"/>
+  <dimension ref="A2:G999"/>
   <sheetViews>
     <sheetView showGridLines="0" workbookViewId="0">
-      <selection activeCell="F7" sqref="F7"/>
+      <selection activeCell="F10" sqref="F10"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="14.44140625" defaultRowHeight="15" customHeight="1" x14ac:dyDescent="0.3"/>
@@ -4204,21 +4435,21 @@
     <col min="5" max="5" width="12.88671875" customWidth="1"/>
     <col min="6" max="6" width="20.6640625" customWidth="1"/>
     <col min="7" max="7" width="34.44140625" customWidth="1"/>
-    <col min="8" max="20" width="10.6640625" customWidth="1"/>
+    <col min="8" max="19" width="10.6640625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="2" spans="1:8" ht="25.8" x14ac:dyDescent="0.5">
-      <c r="A2" s="25" t="s">
+    <row r="2" spans="1:7" ht="25.8" x14ac:dyDescent="0.5">
+      <c r="A2" s="27" t="s">
         <v>22</v>
       </c>
-      <c r="B2" s="26"/>
-      <c r="C2" s="26"/>
-      <c r="D2" s="26"/>
-      <c r="E2" s="26"/>
-      <c r="F2" s="26"/>
-      <c r="G2" s="26"/>
-    </row>
-    <row r="5" spans="1:8" ht="14.4" x14ac:dyDescent="0.3">
+      <c r="B2" s="28"/>
+      <c r="C2" s="28"/>
+      <c r="D2" s="28"/>
+      <c r="E2" s="28"/>
+      <c r="F2" s="28"/>
+      <c r="G2" s="28"/>
+    </row>
+    <row r="5" spans="1:7" ht="14.4" x14ac:dyDescent="0.3">
       <c r="A5" s="1" t="s">
         <v>1</v>
       </c>
@@ -4240,11 +4471,8 @@
       <c r="G5" s="1" t="s">
         <v>7</v>
       </c>
-      <c r="H5" t="s">
-        <v>134</v>
-      </c>
-    </row>
-    <row r="6" spans="1:8" ht="14.4" x14ac:dyDescent="0.3">
+    </row>
+    <row r="6" spans="1:7" ht="14.4" x14ac:dyDescent="0.3">
       <c r="A6" s="13" t="s">
         <v>60</v>
       </c>
@@ -4263,7 +4491,7 @@
       <c r="F6" s="4"/>
       <c r="G6" s="4"/>
     </row>
-    <row r="7" spans="1:8" ht="14.4" x14ac:dyDescent="0.3">
+    <row r="7" spans="1:7" ht="14.4" x14ac:dyDescent="0.3">
       <c r="A7" s="13" t="s">
         <v>61</v>
       </c>
@@ -4280,14 +4508,11 @@
         <v>77</v>
       </c>
       <c r="F7" s="16" t="s">
-        <v>135</v>
+        <v>133</v>
       </c>
       <c r="G7" s="4"/>
-      <c r="H7" s="21" t="s">
-        <v>133</v>
-      </c>
-    </row>
-    <row r="8" spans="1:8" ht="14.4" x14ac:dyDescent="0.3">
+    </row>
+    <row r="8" spans="1:7" ht="14.4" x14ac:dyDescent="0.3">
       <c r="A8" s="13" t="s">
         <v>62</v>
       </c>
@@ -4306,7 +4531,7 @@
       <c r="F8" s="4"/>
       <c r="G8" s="4"/>
     </row>
-    <row r="9" spans="1:8" ht="14.4" x14ac:dyDescent="0.3">
+    <row r="9" spans="1:7" ht="14.4" x14ac:dyDescent="0.3">
       <c r="A9" s="13" t="s">
         <v>63</v>
       </c>
@@ -4325,7 +4550,7 @@
       <c r="F9" s="18"/>
       <c r="G9" s="4"/>
     </row>
-    <row r="10" spans="1:8" ht="14.4" x14ac:dyDescent="0.3">
+    <row r="10" spans="1:7" ht="14.4" x14ac:dyDescent="0.3">
       <c r="A10" s="14" t="s">
         <v>64</v>
       </c>
@@ -4341,10 +4566,12 @@
       <c r="E10" s="16" t="s">
         <v>77</v>
       </c>
-      <c r="F10" s="4"/>
+      <c r="F10" s="4" t="s">
+        <v>13</v>
+      </c>
       <c r="G10" s="4"/>
     </row>
-    <row r="11" spans="1:8" ht="14.4" x14ac:dyDescent="0.3">
+    <row r="11" spans="1:7" ht="14.4" x14ac:dyDescent="0.3">
       <c r="A11" s="15" t="s">
         <v>65</v>
       </c>
@@ -4361,14 +4588,11 @@
         <v>77</v>
       </c>
       <c r="F11" s="16" t="s">
-        <v>135</v>
+        <v>133</v>
       </c>
       <c r="G11" s="4"/>
-      <c r="H11" t="s">
-        <v>133</v>
-      </c>
-    </row>
-    <row r="12" spans="1:8" ht="15" customHeight="1" x14ac:dyDescent="0.3">
+    </row>
+    <row r="12" spans="1:7" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A12" s="15" t="s">
         <v>66</v>
       </c>
@@ -4387,7 +4611,7 @@
       <c r="F12" s="4"/>
       <c r="G12" s="4"/>
     </row>
-    <row r="13" spans="1:8" ht="15" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="13" spans="1:7" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A13" s="12" t="s">
         <v>67</v>
       </c>
@@ -4406,7 +4630,7 @@
       <c r="F13" s="4"/>
       <c r="G13" s="4"/>
     </row>
-    <row r="14" spans="1:8" ht="14.4" x14ac:dyDescent="0.3">
+    <row r="14" spans="1:7" ht="14.4" x14ac:dyDescent="0.3">
       <c r="A14" s="12" t="s">
         <v>68</v>
       </c>
@@ -4427,7 +4651,7 @@
         <v>79</v>
       </c>
     </row>
-    <row r="15" spans="1:8" ht="14.4" x14ac:dyDescent="0.3">
+    <row r="15" spans="1:7" ht="14.4" x14ac:dyDescent="0.3">
       <c r="A15" s="5"/>
       <c r="B15" s="5"/>
       <c r="C15" s="5"/>
@@ -4435,7 +4659,7 @@
       <c r="F15" s="19"/>
       <c r="G15" s="19"/>
     </row>
-    <row r="16" spans="1:8" ht="14.4" x14ac:dyDescent="0.3">
+    <row r="16" spans="1:7" ht="14.4" x14ac:dyDescent="0.3">
       <c r="A16" s="5"/>
       <c r="B16" s="5"/>
       <c r="C16" s="5"/>
